--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3249682.16127571</v>
+        <v>3294989.388264641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2977849.2718691</v>
+        <v>2104816.956126889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1022173.248016196</v>
+        <v>826053.9034197839</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6876916.451832142</v>
+        <v>6952932.083831291</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>65.59588116322361</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9609751381512</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>298.7259719193998</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +740,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>140.5040004736929</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.6343546391323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.98289658589034</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>229.9609751381512</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9609751381512</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>311.3386522827929</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>49.00967004793903</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1026,16 +1028,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>224.0318475142618</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>70.7861457923905</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>103.1608228741821</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>263.1123638876232</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>129.7530965389878</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>166.5378736738107</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>60.79924001316956</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>15.36279060924217</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I13" t="n">
         <v>37.77220663497644</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1582,7 +1584,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.5045871691888</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>263.2585353970046</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6015064104049</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>272.5724785495268</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>286.7402830002279</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0459168717828</v>
+        <v>141.4782195346024</v>
       </c>
       <c r="H14" t="n">
-        <v>140.2041700400911</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.86320842326587</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T14" t="n">
-        <v>95.28038533108342</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>127.2099911846533</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
-        <v>212.7005301184227</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.3038335963013</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>259.5728679311796</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>266.5405909035108</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.3707274192942</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C16" t="n">
-        <v>42.5178556695766</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D16" t="n">
-        <v>28.09157088141633</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E16" t="n">
-        <v>28.01801293429544</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F16" t="n">
-        <v>29.76746435406271</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G16" t="n">
-        <v>40.58630227645484</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H16" t="n">
-        <v>27.93855444302689</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I16" t="n">
-        <v>5.778270024198818</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S16" t="n">
-        <v>74.80271189418205</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>107.3766502283541</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>156.599192755424</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>137.3343406422899</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
-        <v>154.5118869630401</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>105.7543079097527</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
-        <v>94.895729486429</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>270.5045871691888</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>263.2585353970046</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>255.6015064104049</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>272.5724785495268</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>286.7402830002279</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>283.0459168717828</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>140.2041700400911</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.86320842326587</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>95.28038533108342</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>127.2099911846533</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>212.7005301184227</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>241.3038335963013</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>259.5728679311796</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>266.5405909035108</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.3707274192942</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>42.5178556695766</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>28.09157088141633</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>28.01801293429544</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>29.76746435406271</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>40.58630227645484</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>27.93855444302689</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>5.778270024198818</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>74.80271189418205</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>107.3766502283541</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>156.599192755424</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>137.3343406422899</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>154.5118869630401</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>105.7543079097527</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.895729486429</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.5045871691888</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>263.2585353970046</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>255.6015064104049</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>272.5724785495268</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>286.7402830002279</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>283.0459168717828</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>194.8570088440802</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>79.49075495036018</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>127.2099911846533</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>212.7005301184227</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>241.3038335963013</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>259.5728679311796</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.5405909035108</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.3707274192942</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>42.5178556695766</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>28.09157088141633</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>28.01801293429544</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>29.76746435406271</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>40.58630227645484</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>27.93855444302689</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>5.778270024198818</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>74.80271189418205</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>107.3766502283541</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>156.599192755424</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>137.3343406422899</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>154.5118869630401</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>105.7543079097527</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.895729486429</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>270.5045871691888</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>263.2585353970046</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>255.6015064104049</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>272.5724785495268</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>286.7402830002279</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>283.0459168717828</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>194.8570088440802</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.86320842326587</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>95.28038533108342</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>72.55715238066431</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>212.7005301184227</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>241.3038335963013</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>259.5728679311796</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.5405909035108</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.3707274192942</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>42.5178556695766</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>28.09157088141633</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>28.01801293429544</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>29.76746435406271</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>40.58630227645484</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>27.93855444302689</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>5.778270024198818</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>74.80271189418205</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>107.3766502283541</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>156.599192755424</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>137.3343406422899</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>154.5118869630401</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>105.7543079097527</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.895729486429</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>171.0823649165955</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603045</v>
@@ -2570,10 +2572,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>270.9963418315489</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2733,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.1298289386985</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>258.8837771665143</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>251.2267481799145</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>268.1977203190365</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>282.3655247697376</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>278.6711586412924</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>190.4822506135898</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>6.593776422875408</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.48845019277553</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
-        <v>90.90562710059308</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>122.835232954163</v>
+        <v>131.6657421126915</v>
       </c>
       <c r="V29" t="n">
-        <v>208.3257718879324</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>236.929075365811</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>255.1981097006893</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.1658326730205</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.99596918880385</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>38.14309743908626</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>23.71681265092599</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>23.6432547038051</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>25.39270612357237</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>36.2115440459645</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>23.56379621253654</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>1.403511793708475</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>70.42795366369171</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0018919978638</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>152.2244345249337</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>132.9595824117996</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>150.1371287325497</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>101.3795496792623</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.52097125593866</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3044,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3247,13 +3249,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3274,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3286,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875645</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3492,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3723,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.1271668022373</v>
+        <v>322.28027399112</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D41" t="n">
-        <v>273.3946561012458</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>330.1950581825753</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F41" t="n">
-        <v>344.3628626332764</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>340.6684965048312</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H41" t="n">
-        <v>252.4795884771286</v>
+        <v>113.0134044094811</v>
       </c>
       <c r="I41" t="n">
-        <v>68.59111428641422</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.48578805631435</v>
+        <v>90.63889524519706</v>
       </c>
       <c r="T41" t="n">
-        <v>152.9029649641319</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U41" t="n">
-        <v>184.8325708177018</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>293.0795204182325</v>
       </c>
       <c r="X41" t="n">
-        <v>317.1954475642281</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y41" t="n">
-        <v>324.1631705365593</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C43" t="n">
-        <v>100.1404353026251</v>
+        <v>94.29354249150779</v>
       </c>
       <c r="D43" t="n">
-        <v>85.71415051446481</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>85.64059256734392</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.5431511759939</v>
       </c>
       <c r="G43" t="n">
-        <v>98.20888190950332</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>85.56113407607536</v>
+        <v>79.71424126495808</v>
       </c>
       <c r="I43" t="n">
-        <v>63.40084965724729</v>
+        <v>57.55395684613001</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.29934802170321</v>
+        <v>48.45245521058592</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>66.14093189028853</v>
       </c>
       <c r="T43" t="n">
-        <v>164.9992298614026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.1575289858905</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9569202753384</v>
+        <v>189.1100274642211</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X43" t="n">
-        <v>163.3768875428011</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5183091194775</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529698</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519711</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>70.54156530475001</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
-        <v>321.4274170570412</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.29354249150784</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>48.45245521058597</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
-        <v>166.9492859935483</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>156.7515401426552</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455.276274010885</v>
+        <v>865.0483823832794</v>
       </c>
       <c r="C2" t="n">
-        <v>455.276274010885</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D2" t="n">
-        <v>455.276274010885</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E2" t="n">
-        <v>455.276274010885</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>389.017808189447</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
-        <v>156.7339949185873</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>156.7339949185873</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M2" t="n">
-        <v>390.7080163066498</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N2" t="n">
-        <v>618.3693816934194</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>919.8439005526046</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V2" t="n">
-        <v>919.8439005526046</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W2" t="n">
-        <v>687.5600872817448</v>
+        <v>1261.539091462678</v>
       </c>
       <c r="X2" t="n">
-        <v>455.276274010885</v>
+        <v>1261.539091462678</v>
       </c>
       <c r="Y2" t="n">
-        <v>455.276274010885</v>
+        <v>865.0483823832794</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226.7541123385867</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>226.7541123385867</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>226.7541123385867</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>226.7541123385867</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>226.7541123385867</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>106.6942944104512</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K3" t="n">
-        <v>18.39687801105209</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L3" t="n">
-        <v>18.39687801105209</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M3" t="n">
-        <v>236.8598043922958</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N3" t="n">
-        <v>464.5211697790654</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>692.182535165835</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>709.7807572312464</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>567.8575244295364</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>567.8575244295364</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>378.5504467795481</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>378.5504467795481</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.6133792164462</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>204.4082612824354</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>717.0278167351539</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>717.0278167351539</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U4" t="n">
-        <v>717.0278167351539</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V4" t="n">
-        <v>717.0278167351539</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W4" t="n">
-        <v>717.0278167351539</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>717.0278167351539</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>559.8213979077475</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>649.5671735672668</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C5" t="n">
-        <v>649.5671735672668</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D5" t="n">
-        <v>649.5671735672668</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E5" t="n">
-        <v>621.3016214603068</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F5" t="n">
-        <v>389.017808189447</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7339949185873</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7339949185873</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>246.0582433978217</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L5" t="n">
-        <v>246.0582433978217</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M5" t="n">
-        <v>246.0582433978217</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N5" t="n">
-        <v>473.7196087845913</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O5" t="n">
-        <v>701.380974171361</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
-        <v>734.998340411656</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>881.8509868381266</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>881.8509868381266</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>881.8509868381266</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>881.8509868381266</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>881.8509868381266</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>881.8509868381266</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="X5" t="n">
-        <v>649.5671735672668</v>
+        <v>1515.936701671408</v>
       </c>
       <c r="Y5" t="n">
-        <v>649.5671735672668</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392.3748857760569</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>241.7206553361492</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>241.7206553361492</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>192.2159381160087</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>67.7841319991405</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>67.7841319991405</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L6" t="n">
-        <v>131.5118602307795</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M6" t="n">
-        <v>131.5118602307795</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N6" t="n">
-        <v>236.8598043922958</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O6" t="n">
-        <v>464.5211697790654</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>760.996180350538</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>760.996180350538</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>760.996180350538</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>760.996180350538</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
-        <v>571.6891027005497</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>392.3748857760569</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.4913033739742</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4913033739742</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D7" t="n">
-        <v>151.4913033739742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>151.4913033739742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>151.4913033739742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>151.4913033739742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>151.4913033739742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N7" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O7" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P7" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q7" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>687.5600872817448</v>
+        <v>722.4651971741448</v>
       </c>
       <c r="U7" t="n">
-        <v>687.5600872817448</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="V7" t="n">
-        <v>455.276274010885</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="W7" t="n">
-        <v>383.775116644834</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="X7" t="n">
-        <v>151.4913033739742</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.4913033739742</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1665.394817750351</v>
+        <v>924.8850248408685</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,16 +4807,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2056.93918491569</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2056.93918491569</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1714.832375619209</v>
       </c>
       <c r="W8" t="n">
-        <v>2061.885526829749</v>
+        <v>1714.832375619209</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.885526829749</v>
+        <v>1325.379770552265</v>
       </c>
       <c r="Y8" t="n">
-        <v>1665.394817750351</v>
+        <v>1325.379770552265</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>2167.683390987683</v>
       </c>
       <c r="P9" t="n">
-        <v>2358.257858376064</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.7952693979076</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="C10" t="n">
-        <v>523.5901514638969</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="D10" t="n">
-        <v>523.5901514638969</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E10" t="n">
-        <v>523.5901514638969</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4989,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>693.7952693979076</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>693.7952693979076</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>693.7952693979076</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>693.7952693979076</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>693.7952693979076</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="X10" t="n">
-        <v>693.7952693979076</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.7952693979076</v>
+        <v>371.2001370995833</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1580.711427684574</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D11" t="n">
-        <v>1021.936224042535</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>714.2933804462682</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
         <v>652.8800066955919</v>
@@ -5072,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2482.327443680748</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2187.815519900993</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>1886.265492108782</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C12" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D12" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G12" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>822.3203958792419</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>822.3203958792419</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>1305.886481777555</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1933.658131404236</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2589.436102614795</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q12" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R12" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S12" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T12" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U12" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V12" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W12" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y12" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="13">
@@ -5176,16 +5178,16 @@
         <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979813</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5200,19 +5202,19 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
         <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385193</v>
@@ -5233,16 +5235,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
         <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.707905753649</v>
+        <v>1695.897093415104</v>
       </c>
       <c r="C14" t="n">
-        <v>1312.790193231422</v>
+        <v>1397.662273205223</v>
       </c>
       <c r="D14" t="n">
-        <v>1054.606853422932</v>
+        <v>1107.161825709079</v>
       </c>
       <c r="E14" t="n">
-        <v>779.2811175143194</v>
+        <v>799.5189821128117</v>
       </c>
       <c r="F14" t="n">
-        <v>489.6444680191397</v>
+        <v>477.5652249299778</v>
       </c>
       <c r="G14" t="n">
-        <v>203.7395014819853</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3066.700619121669</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2970.457805655928</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U14" t="n">
-        <v>2841.962865065369</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="V14" t="n">
-        <v>2627.11384474373</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="W14" t="n">
-        <v>2383.37259868686</v>
+        <v>2597.513109411278</v>
       </c>
       <c r="X14" t="n">
-        <v>2121.17778259476</v>
+        <v>2303.001185631523</v>
       </c>
       <c r="Y14" t="n">
-        <v>1851.944862490203</v>
+        <v>2001.451157839313</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.8646131415212</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C16" t="n">
-        <v>223.9172841823529</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
-        <v>195.5419600597102</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
-        <v>167.2409368937552</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
-        <v>137.1727910815706</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>96.17652615585867</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>67.95576409219514</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>143.9541688140574</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>308.0818086878572</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>494.3733870261212</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>802.2883800315735</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>964.9931470732815</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1161.064181719719</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1164.48637808977</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>1164.48637808977</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1088.928083247162</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>980.4668203902382</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>822.2858176069817</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>683.5642614026484</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>527.4916483086686</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X16" t="n">
-        <v>420.6691150664942</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>324.81484285798</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1578.707905753649</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1312.790193231422</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.606853422932</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>779.2811175143194</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>489.6444680191397</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>203.7395014819853</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3066.700619121669</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2970.457805655928</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2841.962865065369</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2627.11384474373</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2383.37259868686</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2121.17778259476</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1851.944862490203</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5594,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.8646131415212</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>223.9172841823529</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>195.5419600597102</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>167.2409368937552</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1727910815706</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>96.17652615585867</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>67.95576409219514</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5679,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P19" t="n">
-        <v>1036.338822745476</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1088.928083247162</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>980.4668203902382</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>822.2858176069817</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>683.5642614026484</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>527.4916483086686</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>420.6691150664942</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.81484285798</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1633.912793434446</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1367.995080912219</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1109.811741103729</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>834.4860051951164</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>544.8493556999367</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>258.9443891627824</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>3025.662693336726</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2897.167752746167</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.318732424527</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2438.577486367657</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2176.382670275557</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1907.149750171001</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.8646131415212</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>223.9172841823529</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>195.5419600597102</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>167.2409368937552</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>137.1727910815706</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>96.17652615585867</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>67.95576409219514</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5926,34 +5928,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1036.338822745476</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1088.928083247162</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>980.4668203902382</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>822.2858176069817</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>683.5642614026484</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>527.4916483086686</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>420.6691150664942</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>324.81484285798</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1633.912793434446</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1367.995080912219</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1109.811741103729</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>834.4860051951164</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>544.8493556999367</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>258.9443891627824</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3066.700619121669</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2970.457805655928</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2897.167752746167</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2682.318732424527</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2438.577486367657</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2176.382670275557</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1907.149750171001</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.8646131415212</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>223.9172841823529</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>195.5419600597102</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>167.2409368937552</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>137.1727910815706</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>96.17652615585867</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>67.95576409219514</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>619.0987460003644</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>878.4832489014323</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>1041.18801594314</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1161.064181719719</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1164.48637808977</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1088.928083247162</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>980.4668203902382</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>822.2858176069817</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>683.5642614026484</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>527.4916483086686</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>420.6691150664942</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>324.81484285798</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1480.983092530629</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C26" t="n">
-        <v>1182.748272320748</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D26" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>702.2949591117579</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F26" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6257,19 +6259,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>2658.657462271327</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W26" t="n">
-        <v>2382.599108526803</v>
+        <v>2471.277863384681</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.087184747048</v>
+        <v>2176.765939604927</v>
       </c>
       <c r="Y26" t="n">
-        <v>1786.537156954837</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.973980501895</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.83745067606</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029237</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.88058221894</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865492</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252126</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125542</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.12067459528</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050702</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.276167976342</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080173</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1614.059487414177</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C29" t="n">
-        <v>1352.560722599516</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D29" t="n">
-        <v>1098.796330498592</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>827.8895422975452</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F29" t="n">
-        <v>542.6718405099314</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G29" t="n">
-        <v>261.1858216803431</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H29" t="n">
-        <v>68.7795079292422</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6488,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3071.119566829236</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2979.295701071061</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2855.219708188068</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="V29" t="n">
-        <v>2644.789635573995</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="W29" t="n">
-        <v>2405.46733722469</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="X29" t="n">
-        <v>2147.691468840156</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y29" t="n">
-        <v>1882.877496443165</v>
+        <v>2176.765939604926</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6545,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>803.0057595505241</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.783730761083</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O30" t="n">
         <v>1740.468202408463</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.9319791885592</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C31" t="n">
-        <v>197.4035979369569</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4472215218802</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
-        <v>149.5651460634912</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
-        <v>123.9159479588726</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>87.33863074072667</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
-        <v>63.53681638462914</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>161.4017547291066</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
-        <v>243.2367958390485</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>407.3644357128483</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>593.6560140511123</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
-        <v>776.8456480823215</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>939.5504151240295</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1059.426580900608</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1098.20216247628</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R31" t="n">
-        <v>1098.20216247628</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1027.062815341238</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
-        <v>923.0205001918803</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>769.2584451161897</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
-        <v>634.9558366194225</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>483.3021712330086</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X31" t="n">
-        <v>380.8985856984002</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y31" t="n">
-        <v>289.463261197452</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6691,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,7 +6727,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6734,13 +6736,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6777,16 +6779,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N33" t="n">
         <v>1458.313011372373</v>
@@ -6832,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M34" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N34" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P34" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6886,22 +6888,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6922,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924244</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6976,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C36" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D36" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G36" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>1107.359996292367</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>1590.92608219068</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q36" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R36" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S36" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T36" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U36" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V36" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X36" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y36" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>2243.686201918056</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>2205.157820666454</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>2181.201444251377</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>2157.319368792988</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>2131.67017068837</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>2095.092853470224</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>2071.291039114127</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433613</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433613</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>2151.708391543555</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>2315.836031417355</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>2502.127609755619</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>2685.317243786828</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>2848.022010828536</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>2967.898176605115</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>3098.335375262359</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>2297.217483926949</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7159,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,10 +7210,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7257,16 +7259,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1490.311599914302</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>2157.288034151737</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750519</v>
+        <v>2321.415674025537</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1688.070416780349</v>
+        <v>1160.318517293599</v>
       </c>
       <c r="C41" t="n">
-        <v>1688.070416780349</v>
+        <v>842.1021312138662</v>
       </c>
       <c r="D41" t="n">
-        <v>1411.914198496263</v>
+        <v>842.1021312138662</v>
       </c>
       <c r="E41" t="n">
-        <v>1078.383836695682</v>
+        <v>514.477721747747</v>
       </c>
       <c r="F41" t="n">
-        <v>730.5425613085338</v>
+        <v>514.477721747747</v>
       </c>
       <c r="G41" t="n">
-        <v>386.4329688794114</v>
+        <v>176.2740816530863</v>
       </c>
       <c r="H41" t="n">
-        <v>131.4030815287764</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3008.495993229701</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T41" t="n">
-        <v>2854.048553871992</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U41" t="n">
-        <v>2667.348987389465</v>
+        <v>2685.066844392851</v>
       </c>
       <c r="V41" t="n">
-        <v>2667.348987389465</v>
+        <v>2417.919150513706</v>
       </c>
       <c r="W41" t="n">
-        <v>2667.348987389465</v>
+        <v>2121.87923089933</v>
       </c>
       <c r="X41" t="n">
-        <v>2346.949545405396</v>
+        <v>1807.385741249723</v>
       </c>
       <c r="Y41" t="n">
-        <v>2019.511999408872</v>
+        <v>1485.85414758766</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>586.0242226811456</v>
+        <v>378.3866951572365</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8722678300092</v>
+        <v>283.140692640562</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2923178153983</v>
+        <v>283.140692640562</v>
       </c>
       <c r="E43" t="n">
-        <v>311.7866687574751</v>
+        <v>283.140692640562</v>
       </c>
       <c r="F43" t="n">
-        <v>311.7866687574751</v>
+        <v>200.7738732708712</v>
       </c>
       <c r="G43" t="n">
-        <v>212.585777939795</v>
+        <v>200.7738732708712</v>
       </c>
       <c r="H43" t="n">
-        <v>126.1603899841633</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>100.0243902442032</v>
+        <v>105.8128141272093</v>
       </c>
       <c r="K43" t="n">
-        <v>249.5384364916702</v>
+        <v>261.1152842576824</v>
       </c>
       <c r="L43" t="n">
-        <v>481.3450815029951</v>
+        <v>498.7103531520135</v>
       </c>
       <c r="M43" t="n">
-        <v>735.3156649787843</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N43" t="n">
-        <v>986.1843041475187</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O43" t="n">
-        <v>1216.568076326752</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>1404.123247240856</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q43" t="n">
-        <v>1475.224448748432</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R43" t="n">
-        <v>1420.376622463883</v>
+        <v>1472.589965862394</v>
       </c>
       <c r="S43" t="n">
-        <v>1420.376622463883</v>
+        <v>1405.780943750991</v>
       </c>
       <c r="T43" t="n">
-        <v>1253.710733714991</v>
+        <v>1405.780943750991</v>
       </c>
       <c r="U43" t="n">
-        <v>1102.036462012072</v>
+        <v>1195.301267410228</v>
       </c>
       <c r="V43" t="n">
-        <v>905.1102799157704</v>
+        <v>1004.281037648389</v>
       </c>
       <c r="W43" t="n">
-        <v>905.1102799157704</v>
+        <v>795.9097509969026</v>
       </c>
       <c r="X43" t="n">
-        <v>740.0831207816279</v>
+        <v>636.788544197222</v>
       </c>
       <c r="Y43" t="n">
-        <v>586.0242226811456</v>
+        <v>488.6355984312016</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.296771771504</v>
+        <v>2011.082836269683</v>
       </c>
       <c r="C44" t="n">
-        <v>1591.121270274435</v>
+        <v>1692.86645018995</v>
       </c>
       <c r="D44" t="n">
-        <v>1205.680141491103</v>
+        <v>1382.384436823954</v>
       </c>
       <c r="E44" t="n">
-        <v>803.0966166076471</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="F44" t="n">
-        <v>386.2021781376249</v>
+        <v>712.8247043051483</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>374.6210642104876</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>125.4971291943145</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2943.147839195729</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2943.147839195729</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2943.147839195729</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205776</v>
+        <v>2647.107919581353</v>
       </c>
       <c r="X44" t="n">
-        <v>2781.2822265623</v>
+        <v>2332.614429931746</v>
       </c>
       <c r="Y44" t="n">
-        <v>2384.791517482901</v>
+        <v>2011.082836269683</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C45" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D45" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G45" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>2987.590685247648</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q45" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R45" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S45" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T45" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U45" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V45" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X45" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y45" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>387.699116391697</v>
+        <v>157.3651302207901</v>
       </c>
       <c r="C46" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
         <v>62.11912770411553</v>
@@ -7804,52 +7806,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>105.8128141272093</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>261.1152842576823</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>498.7103531520133</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S46" t="n">
-        <v>839.6651608782449</v>
+        <v>1344.732997462279</v>
       </c>
       <c r="T46" t="n">
-        <v>839.6651608782449</v>
+        <v>1183.973061047849</v>
       </c>
       <c r="U46" t="n">
-        <v>671.0295184605194</v>
+        <v>973.4933847070863</v>
       </c>
       <c r="V46" t="n">
-        <v>671.0295184605194</v>
+        <v>782.4731549452467</v>
       </c>
       <c r="W46" t="n">
-        <v>387.699116391697</v>
+        <v>574.1018682937606</v>
       </c>
       <c r="X46" t="n">
-        <v>387.699116391697</v>
+        <v>415.7669792607756</v>
       </c>
       <c r="Y46" t="n">
-        <v>387.699116391697</v>
+        <v>267.6140334947552</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>270.4260094517309</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>267.3708664324162</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>313.0567446566288</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8216,22 +8218,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0193783173885</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>184.2583828371828</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,22 +8300,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>203.2753887107832</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>191.7841776637791</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,19 +8455,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>287.0481265258778</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.45345285401153</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8786,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,16 +9482,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9966,10 +9968,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10191,19 +10193,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>377.2173282296772</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
@@ -10434,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046932</v>
       </c>
       <c r="N36" t="n">
-        <v>747.298629845933</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10905,19 +10907,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M39" t="n">
-        <v>609.3287968270082</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,16 +11384,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>257.934979597836</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.9349795978368</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>173.561633947958</v>
       </c>
       <c r="H14" t="n">
-        <v>54.65283880398908</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>10.96853465336575</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>54.65283880398908</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>10.96853465336575</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>10.96853465336575</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.86320842326587</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>15.78963038072324</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.96853465336575</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>54.652838803989</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>116.513078104587</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.301428375530122</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -24734,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>27.53818568273937</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>320.8811150300531</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>39.82942994220753</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>133.6192912565303</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529694</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>270.3231097514712</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>298.9264132293498</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.9933070523427</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.86725770334752</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.79369975622663</v>
       </c>
       <c r="F43" t="n">
-        <v>87.39004398711118</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838603</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>132.4252915272305</v>
+        <v>60.43746682582471</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>159.1523370502853</v>
       </c>
       <c r="U43" t="n">
-        <v>64.06424340258201</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>212.1344665960885</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>76.51450684826466</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>64.13066195923255</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>79.86725770334756</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>79.79369975622667</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.54315117599394</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>92.36198909838608</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>79.71424126495812</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>57.55395684613005</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>115.6351178469698</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0.778454589028712</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>583481.3322890669</v>
+        <v>609672.3017613332</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>583481.3322890669</v>
+        <v>609672.3017613332</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>614504.6962376066</v>
+        <v>585854.1260026552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>614504.6962376066</v>
+        <v>618422.2922330108</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>614504.6962376067</v>
+        <v>618422.2922330108</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>614504.6962376066</v>
+        <v>618422.2922330108</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618422.2922330108</v>
+        <v>585854.1260026554</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>551905.5438300354</v>
+        <v>559650.539180754</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459093.7826734547</v>
+        <v>559650.539180754</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.712373427</v>
       </c>
       <c r="D2" t="n">
         <v>721328.712373427</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329538</v>
+        <v>677904.490732954</v>
       </c>
       <c r="F2" t="n">
-        <v>716105.2510462219</v>
+        <v>677904.4907329541</v>
       </c>
       <c r="G2" t="n">
-        <v>716105.2510462219</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="H2" t="n">
-        <v>716105.2510462223</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="I2" t="n">
-        <v>716105.2510462221</v>
+        <v>721328.7123734276</v>
       </c>
       <c r="J2" t="n">
-        <v>677904.4907329538</v>
+        <v>677904.490732954</v>
       </c>
       <c r="K2" t="n">
-        <v>721328.7123734273</v>
+        <v>677904.490732954</v>
       </c>
       <c r="L2" t="n">
         <v>721328.7123734275</v>
@@ -26350,10 +26352,10 @@
         <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>632639.7145027944</v>
+        <v>642966.3749704183</v>
       </c>
       <c r="P2" t="n">
-        <v>508890.6996273523</v>
+        <v>642966.3749704182</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77065.21187122262</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>112277.5710758672</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>25595.1492886221</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29094.95587301438</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109765.7796698775</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>54690.10516163647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91480.03329093235</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1177.707664501588</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294245.3712863224</v>
+        <v>223021.8565516675</v>
       </c>
       <c r="C4" t="n">
-        <v>294245.3712863224</v>
+        <v>223021.8565516675</v>
       </c>
       <c r="D4" t="n">
-        <v>223021.8565516675</v>
+        <v>223021.8565516674</v>
       </c>
       <c r="E4" t="n">
-        <v>174664.8493247784</v>
+        <v>174664.8493247783</v>
       </c>
       <c r="F4" t="n">
-        <v>196308.4520402889</v>
+        <v>174664.8493247783</v>
       </c>
       <c r="G4" t="n">
-        <v>196308.4520402889</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>196308.4520402889</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>196308.4520402889</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
         <v>174664.8493247784</v>
       </c>
       <c r="K4" t="n">
-        <v>199269.1699682603</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26456,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>148765.9337129616</v>
+        <v>154674.4862404941</v>
       </c>
       <c r="P4" t="n">
-        <v>77974.57856039687</v>
+        <v>154674.486240494</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47609.22728839959</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>47609.22728839959</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,22 +26481,22 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>57801.98776584057</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>57801.98776584057</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>57801.98776584057</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>57801.98776584057</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="K5" t="n">
-        <v>58169.76931551966</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26508,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>52957.71511866982</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>53449.25755040763</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302408.9019274827</v>
+        <v>230525.5925528416</v>
       </c>
       <c r="C6" t="n">
-        <v>379474.1137987054</v>
+        <v>428721.3985445864</v>
       </c>
       <c r="D6" t="n">
-        <v>316443.8274687191</v>
+        <v>428721.3985445864</v>
       </c>
       <c r="E6" t="n">
-        <v>317674.4207615542</v>
+        <v>317674.4207615545</v>
       </c>
       <c r="F6" t="n">
-        <v>436399.6619514704</v>
+        <v>448127.3518992667</v>
       </c>
       <c r="G6" t="n">
-        <v>461994.8112400926</v>
+        <v>434794.8172166329</v>
       </c>
       <c r="H6" t="n">
-        <v>461994.8112400929</v>
+        <v>463889.7730896474</v>
       </c>
       <c r="I6" t="n">
-        <v>461994.8112400926</v>
+        <v>463889.7730896476</v>
       </c>
       <c r="J6" t="n">
-        <v>338361.5722293888</v>
+        <v>247289.8538272243</v>
       </c>
       <c r="K6" t="n">
-        <v>409199.6679280109</v>
+        <v>448127.3518992665</v>
       </c>
       <c r="L6" t="n">
-        <v>372409.7397987152</v>
+        <v>405699.8613436188</v>
       </c>
       <c r="M6" t="n">
         <v>417767.8518497557</v>
@@ -26558,10 +26560,10 @@
         <v>463889.7730896475</v>
       </c>
       <c r="O6" t="n">
-        <v>430916.065671163</v>
+        <v>433664.923515015</v>
       </c>
       <c r="P6" t="n">
-        <v>383705.5840118277</v>
+        <v>434842.6311795166</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G2" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26917,10 +26919,10 @@
         <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
-        <v>31.99393661077763</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.99733786353882</v>
+        <v>57.62257963304849</v>
       </c>
       <c r="K2" t="n">
-        <v>68.36263145204559</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.472134580626985</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27154,10 +27156,10 @@
         <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>31.99393661077763</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.99733786353882</v>
+        <v>57.62257963304849</v>
       </c>
       <c r="P2" t="n">
-        <v>68.36263145204559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27381,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>347.1296129220984</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0701528187257</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>68.56307276199561</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>79.81060113895072</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27558,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.24658593239073</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>370.5747930487306</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>182.7645189471708</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>179.0701528187257</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>81.18714970581203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>86.07235593228212</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,16 +27748,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,7 +27794,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,19 +27827,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>9.330013799186446</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>209.7109522557436</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695563</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>118.1047735419954</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>104.1766807937722</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.03482644028833</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>113.9592243743234</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P16" t="n">
-        <v>76.96451400995829</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.9852110850941</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>76.96451400995829</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.9852110850941</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28998,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>76.96451400995829</v>
+        <v>5.636002634528936</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29195,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,10 +29228,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>125.9852110850941</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>76.96451400995829</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29244,25 +29246,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.9852110850941</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.71049010668751</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29928,16 +29930,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
-        <v>28.01250026485212</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29952,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30165,7 +30167,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.01250026485209</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.297982108276</v>
       </c>
       <c r="R37" t="n">
         <v>130.3599693155844</v>
@@ -30402,17 +30404,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>28.01250026485215</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="K43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="L43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="M43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="N43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="O43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="P43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="R43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="S43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.36263145204559</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>117.1778397212393</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>117.8070290083198</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>220.6696226073169</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>229.9609751381512</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>229.9609751381512</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>33.95693559625762</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>113.215041853865</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4120648096124</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>199.9647617065632</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.465299698097541</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.05004611020369</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35506,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
-        <v>82.66165768680997</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>165.78549482202</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
-        <v>188.1733114527919</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>311.0252454600529</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
-        <v>164.3482495370789</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>198.0515501479165</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.456764010152483</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36045,7 +36047,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36059,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>198.0515501479165</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.4419750952466</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,10 +36296,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>198.0515501479165</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.4419750952466</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,10 +36524,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>314.158522537886</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>262.0045483849171</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36686,10 +36688,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>284.5297693407883</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>100.2854818434253</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768680997</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>165.78549482202</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>188.1733114527919</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>185.0400343749588</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>164.3482495370789</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>121.0870361379582</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.16725411683999</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M34" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37248,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553813</v>
       </c>
       <c r="N36" t="n">
-        <v>661.9265169917663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37475,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>213.0525346398109</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37484,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184284</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M39" t="n">
-        <v>516.9416747776963</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>38.28814397988652</v>
+        <v>44.13503679100381</v>
       </c>
       <c r="K43" t="n">
-        <v>151.0242891388556</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L43" t="n">
-        <v>234.1481262740656</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M43" t="n">
-        <v>256.5359429048376</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N43" t="n">
-        <v>253.4026658270044</v>
+        <v>259.2495586381217</v>
       </c>
       <c r="O43" t="n">
-        <v>232.7108809891245</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P43" t="n">
-        <v>189.4496675900037</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.81939546219807</v>
+        <v>77.66628827331536</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,16 +38104,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.13503679100376</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>156.8711819499728</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>239.9950190851828</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>77.66628827331532</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3294989.388264641</v>
+        <v>3294473.758650283</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.956126889</v>
+        <v>2104816.95612689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197839</v>
+        <v>826053.9034197824</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>298.7259719193998</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>306.4970196558265</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -876,7 +876,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828944</v>
+        <v>214.6483185807187</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -913,10 +913,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>128.599042692456</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.3386522827929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.121093124006</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0318475142618</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>54.61063087150634</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>103.1608228741821</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>166.5378736738107</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.8524214313259</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>15.36279060924217</v>
+        <v>90.19129716405995</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142885</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
         <v>37.77220663497644</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943253</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,7 +1584,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662013</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1609,7 +1609,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1618,16 +1618,16 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>141.4782195346024</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404351</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>61.07623540549932</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142885</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
         <v>37.77220663497644</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1821,7 +1821,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
         <v>169.3282772530676</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1861,10 +1861,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2064,13 +2064,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059311</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>188.8088382631126</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>270.9963418315489</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2769,10 +2769,10 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530669</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>131.6657421126915</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.662567890147725</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T32" t="n">
         <v>90.90562710059311</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3283,10 +3283,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3334,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.28027399112</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0342222189358</v>
+        <v>315.0342222189356</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.3771932323359</v>
       </c>
       <c r="E41" t="n">
-        <v>324.348165371458</v>
+        <v>324.3481653714578</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>338.5159698221589</v>
       </c>
       <c r="G41" t="n">
-        <v>334.821603693714</v>
+        <v>334.8216036937138</v>
       </c>
       <c r="H41" t="n">
-        <v>113.0134044094811</v>
+        <v>246.6326956660112</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529674</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519706</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530146</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065845</v>
+        <v>178.9856780065843</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403539</v>
+        <v>264.4762169403537</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182325</v>
+        <v>293.0795204182323</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531109</v>
+        <v>311.3485547531106</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.316277725442</v>
+        <v>36.03484332845318</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412254</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150779</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.79369975622643</v>
       </c>
       <c r="F43" t="n">
-        <v>81.5431511759939</v>
+        <v>81.5431511759937</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838583</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613001</v>
+        <v>57.55395684612981</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058592</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>66.14093189028853</v>
+        <v>126.578398716113</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>159.1523370502851</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773552</v>
+        <v>208.374879577355</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642211</v>
+        <v>189.1100274642209</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849713</v>
+        <v>206.2875737849711</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5299947316838</v>
+        <v>157.5299947316836</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083602</v>
+        <v>86.53257678591797</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>322.2802739911198</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0342222189358</v>
+        <v>315.0342222189356</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3771932323361</v>
+        <v>307.3771932323359</v>
       </c>
       <c r="E44" t="n">
-        <v>324.348165371458</v>
+        <v>324.3481653714578</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221591</v>
+        <v>338.5159698221589</v>
       </c>
       <c r="G44" t="n">
-        <v>334.821603693714</v>
+        <v>334.8216036937138</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660114</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529698</v>
+        <v>62.74422147529674</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519711</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>70.54156530475001</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>132.4052200375975</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>264.4762169403537</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182326</v>
+        <v>293.0795204182323</v>
       </c>
       <c r="X44" t="n">
-        <v>311.3485547531109</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.316277725442</v>
+        <v>318.3162777254418</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412254</v>
+        <v>109.1464142412252</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150784</v>
+        <v>94.29354249150759</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622643</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>28.82363185401191</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495788</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058597</v>
+        <v>48.45245521058573</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161133</v>
+        <v>126.578398716113</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502854</v>
+        <v>159.1523370502851</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773552</v>
+        <v>208.374879577355</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642212</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849713</v>
+        <v>206.2875737849711</v>
       </c>
       <c r="X46" t="n">
-        <v>156.7515401426552</v>
+        <v>157.5299947316836</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083602</v>
+        <v>146.67141630836</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>865.0483823832794</v>
+        <v>600.8019744073591</v>
       </c>
       <c r="C2" t="n">
-        <v>471.8728808862101</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D2" t="n">
-        <v>471.8728808862101</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E2" t="n">
-        <v>69.28935600275456</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4333,22 +4333,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>666.9511603618604</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M2" t="n">
-        <v>1212.952060406441</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.763344043903</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4360,22 +4360,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1563.28249744187</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1261.539091462678</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X2" t="n">
-        <v>1261.539091462678</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.0483823832794</v>
+        <v>1001.296720118756</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>54.70361680265978</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>374.4427628648862</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>858.0088487631995</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M3" t="n">
-        <v>1443.506853769802</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4439,13 +4439,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>224.7860652357804</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.453214517072</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="C5" t="n">
-        <v>1201.453214517072</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.453214517072</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.453214517072</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>173.6308686433316</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>666.9511603618604</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1212.952060406441</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4597,22 +4597,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1905.389306738351</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>1905.389306738351</v>
+        <v>1807.743410941497</v>
       </c>
       <c r="W5" t="n">
-        <v>1905.389306738351</v>
+        <v>1807.743410941497</v>
       </c>
       <c r="X5" t="n">
-        <v>1515.936701671408</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1201.453214517072</v>
+        <v>1418.290805874553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4685,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.9460831990289</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C7" t="n">
-        <v>202.9460831990289</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>201.9807409338729</v>
       </c>
       <c r="H7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>722.4651971741448</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>437.0264054160458</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>437.0264054160458</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>437.0264054160458</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>202.9460831990289</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.9460831990289</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.8850248408685</v>
+        <v>124.4516094083165</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4807,22 +4807,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4834,22 +4834,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2056.93918491569</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2056.93918491569</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1714.832375619209</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.832375619209</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>1325.379770552265</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1325.379770552265</v>
+        <v>524.9463551197134</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1651.163108396702</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2167.683390987683</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.2001370995833</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C10" t="n">
-        <v>371.2001370995833</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>539.420211517574</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W10" t="n">
-        <v>371.2001370995833</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X10" t="n">
-        <v>371.2001370995833</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.2001370995833</v>
+        <v>180.4073954644657</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.711427684574</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1282.476607474693</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
         <v>1282.476607474693</v>
@@ -5038,10 +5038,10 @@
         <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K11" t="n">
         <v>565.7512566404055</v>
@@ -5059,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W11" t="n">
-        <v>2482.327443680748</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.815519900993</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y11" t="n">
-        <v>1886.265492108782</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>822.3203958792419</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>822.3203958792419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>1305.886481777555</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1933.658131404236</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>2589.436102614795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>3105.956385205776</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
@@ -5196,22 +5196,22 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
         <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5241,10 +5241,10 @@
         <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1552.989800955909</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1254.754980746028</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.161825709079</v>
+        <v>964.2545332498844</v>
       </c>
       <c r="E14" t="n">
-        <v>799.5189821128117</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F14" t="n">
-        <v>477.5652249299778</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G14" t="n">
         <v>334.6579324707834</v>
@@ -5284,13 +5284,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5308,22 +5308,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631523</v>
+        <v>2160.093893172329</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>1858.543865380118</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551005</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5439,22 +5439,22 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5472,16 +5472,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5548,7 +5548,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5597,22 +5597,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5676,25 +5676,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5703,22 +5703,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803431</v>
@@ -5791,7 +5791,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5834,22 +5834,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1803.092128039818</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5925,13 +5925,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5974,13 +5974,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6025,7 +6025,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6034,7 +6034,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6147,28 +6147,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.211875180718</v>
+        <v>1563.569031584451</v>
       </c>
       <c r="C26" t="n">
-        <v>1572.977054970837</v>
+        <v>1265.33421137457</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.476607474693</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="E26" t="n">
         <v>974.8337638784258</v>
@@ -6256,22 +6256,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="V26" t="n">
-        <v>2745.011542002408</v>
+        <v>2626.405335146509</v>
       </c>
       <c r="W26" t="n">
-        <v>2471.277863384681</v>
+        <v>2350.346981401985</v>
       </c>
       <c r="X26" t="n">
-        <v>2176.765939604927</v>
+        <v>2055.83505762223</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.765939604927</v>
+        <v>1754.285029830019</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6366,7 +6366,7 @@
         <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
         <v>296.5093676443719</v>
@@ -6387,43 +6387,43 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L28" t="n">
         <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R28" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T28" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
         <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X28" t="n">
         <v>711.5230842553817</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.211875180717</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970836</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D29" t="n">
         <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784257</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955918</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707833</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6496,19 +6496,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2772.827891176892</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V29" t="n">
-        <v>2772.827891176892</v>
+        <v>2743.332180497207</v>
       </c>
       <c r="W29" t="n">
-        <v>2772.827891176892</v>
+        <v>2467.273826752683</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.315967397137</v>
+        <v>2172.761902972929</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.765939604926</v>
+        <v>1871.211875180718</v>
       </c>
     </row>
     <row r="30">
@@ -6548,13 +6548,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M30" t="n">
-        <v>978.5393418843826</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N30" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
         <v>1740.468202408463</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082777</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443718</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
@@ -6621,34 +6621,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6736,16 +6736,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6864,22 +6864,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6928,10 +6928,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6976,7 +6976,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.359996292367</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>1590.92608219068</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>2095.092853470224</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>2071.291039114127</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2151.708391543555</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2315.836031417355</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2502.127609755619</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2685.317243786828</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2848.022010828536</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>2967.898176605115</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3098.335375262359</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7201,7 +7201,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7213,10 +7213,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7259,13 +7259,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2157.288034151737</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2321.415674025537</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1160.318517293599</v>
+        <v>2011.082836269681</v>
       </c>
       <c r="C41" t="n">
-        <v>842.1021312138662</v>
+        <v>1692.866450189948</v>
       </c>
       <c r="D41" t="n">
-        <v>842.1021312138662</v>
+        <v>1382.384436823952</v>
       </c>
       <c r="E41" t="n">
-        <v>514.477721747747</v>
+        <v>1054.760027357833</v>
       </c>
       <c r="F41" t="n">
-        <v>514.477721747747</v>
+        <v>712.8247043051475</v>
       </c>
       <c r="G41" t="n">
-        <v>176.2740816530863</v>
+        <v>374.6210642104871</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>125.4971291943143</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.066844392851</v>
+        <v>2925.162771057711</v>
       </c>
       <c r="V41" t="n">
-        <v>2417.919150513706</v>
+        <v>2658.015077178566</v>
       </c>
       <c r="W41" t="n">
-        <v>2121.87923089933</v>
+        <v>2361.97515756419</v>
       </c>
       <c r="X41" t="n">
-        <v>1807.385741249723</v>
+        <v>2047.481667914583</v>
       </c>
       <c r="Y41" t="n">
-        <v>1485.85414758766</v>
+        <v>2011.082836269681</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1803.092128039818</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>378.3866951572365</v>
+        <v>376.5158922260709</v>
       </c>
       <c r="C43" t="n">
-        <v>283.140692640562</v>
+        <v>376.5158922260709</v>
       </c>
       <c r="D43" t="n">
-        <v>283.140692640562</v>
+        <v>376.5158922260709</v>
       </c>
       <c r="E43" t="n">
-        <v>283.140692640562</v>
+        <v>295.9161955026099</v>
       </c>
       <c r="F43" t="n">
-        <v>200.7738732708712</v>
+        <v>213.5493761329192</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708712</v>
+        <v>120.2544376497012</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497014</v>
+        <v>120.2544376497012</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272093</v>
+        <v>105.8128141272095</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576824</v>
+        <v>261.1152842576828</v>
       </c>
       <c r="L43" t="n">
-        <v>498.7103531520135</v>
+        <v>498.710353152014</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108087</v>
+        <v>758.4693605108096</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.126423562549</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O43" t="n">
-        <v>1251.298619624788</v>
+        <v>1251.29861962479</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.642214421898</v>
+        <v>1444.6422144219</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.53183981248</v>
+        <v>1521.531839812482</v>
       </c>
       <c r="R43" t="n">
-        <v>1472.589965862394</v>
+        <v>1521.531839812482</v>
       </c>
       <c r="S43" t="n">
-        <v>1405.780943750991</v>
+        <v>1393.674871412368</v>
       </c>
       <c r="T43" t="n">
-        <v>1405.780943750991</v>
+        <v>1232.914934997938</v>
       </c>
       <c r="U43" t="n">
-        <v>1195.301267410228</v>
+        <v>1022.435258657176</v>
       </c>
       <c r="V43" t="n">
-        <v>1004.281037648389</v>
+        <v>831.4150288953363</v>
       </c>
       <c r="W43" t="n">
-        <v>795.9097509969026</v>
+        <v>623.0437422438504</v>
       </c>
       <c r="X43" t="n">
-        <v>636.788544197222</v>
+        <v>463.9225354441699</v>
       </c>
       <c r="Y43" t="n">
-        <v>488.6355984312016</v>
+        <v>376.5158922260709</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2011.082836269683</v>
+        <v>1761.958901253508</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.86645018995</v>
+        <v>1443.742515173775</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.384436823954</v>
+        <v>1133.26050180778</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357834</v>
+        <v>805.6360923416605</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051483</v>
+        <v>463.7007692889746</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104876</v>
+        <v>125.4971291943143</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943145</v>
+        <v>125.4971291943143</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2943.147839195729</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2943.147839195729</v>
+        <v>2972.213738703153</v>
       </c>
       <c r="V44" t="n">
-        <v>2943.147839195729</v>
+        <v>2705.066044824007</v>
       </c>
       <c r="W44" t="n">
-        <v>2647.107919581353</v>
+        <v>2409.026125209631</v>
       </c>
       <c r="X44" t="n">
-        <v>2332.614429931746</v>
+        <v>2409.026125209631</v>
       </c>
       <c r="Y44" t="n">
-        <v>2011.082836269683</v>
+        <v>2087.494531547569</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>2331.812714037089</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>2987.590685247648</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>3105.956385205776</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.3651302207901</v>
+        <v>347.5990422159376</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411553</v>
+        <v>252.3530396992632</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>252.3530396992632</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>171.7533429758022</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>171.7533429758022</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>142.6385633252851</v>
       </c>
       <c r="H46" t="n">
         <v>62.11912770411553</v>
@@ -7806,52 +7806,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272093</v>
+        <v>105.8128141272095</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576823</v>
+        <v>261.1152842576828</v>
       </c>
       <c r="L46" t="n">
-        <v>498.7103531520133</v>
+        <v>498.710353152014</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108087</v>
+        <v>758.4693605108096</v>
       </c>
       <c r="N46" t="n">
-        <v>1015.126423562549</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O46" t="n">
-        <v>1251.298619624788</v>
+        <v>1251.29861962479</v>
       </c>
       <c r="P46" t="n">
-        <v>1444.642214421898</v>
+        <v>1444.6422144219</v>
       </c>
       <c r="Q46" t="n">
-        <v>1521.53183981248</v>
+        <v>1521.531839812482</v>
       </c>
       <c r="R46" t="n">
-        <v>1472.589965862393</v>
+        <v>1472.589965862395</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462279</v>
+        <v>1344.732997462281</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047849</v>
+        <v>1183.973061047852</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070863</v>
+        <v>973.493384707089</v>
       </c>
       <c r="V46" t="n">
-        <v>782.4731549452467</v>
+        <v>973.493384707089</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937606</v>
+        <v>765.1220980556031</v>
       </c>
       <c r="X46" t="n">
-        <v>415.7669792607756</v>
+        <v>606.0008912559226</v>
       </c>
       <c r="Y46" t="n">
-        <v>267.6140334947552</v>
+        <v>457.8479454899024</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>270.4260094517309</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7999,7 +7999,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>312.6943406142593</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>165.3117977752925</v>
       </c>
       <c r="M3" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>203.2753887107832</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,13 +8455,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8537,19 +8537,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>287.0481265258778</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8786,10 +8786,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9245,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>624.8237719316268</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,13 +9482,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10196,16 +10196,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O30" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10430,16 +10430,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>258.8480380294549</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046932</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10907,7 +10907,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,7 +10916,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11141,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11153,13 +11153,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,7 +11305,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11387,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>212.2488719779076</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>257.9349795978368</v>
+        <v>183.106473043019</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>173.561633947958</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292004</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>230.4905691364579</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>113.6896855168539</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.301428375530122</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>27.53818568273937</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>243.0318988390526</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>322.2802739911198</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.377193232336</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>133.6192912565303</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529694</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530144</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>282.2814343969886</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.1464142412252</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150759</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334752</v>
+        <v>79.86725770334732</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622663</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838603</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495788</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058573</v>
       </c>
       <c r="S43" t="n">
-        <v>60.43746682582471</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502853</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>60.13883952244203</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911201</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660112</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519686</v>
       </c>
       <c r="T44" t="n">
-        <v>76.51450684826466</v>
+        <v>147.0560721530144</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065845</v>
+        <v>46.58045796898679</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403539</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.3485547531106</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334756</v>
+        <v>79.86725770334732</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622667</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599394</v>
+        <v>81.5431511759937</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838608</v>
+        <v>63.53835724437393</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495812</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613005</v>
+        <v>57.55395684612981</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>189.1100274642209</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.778454589028712</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>585854.1260026554</v>
+        <v>585854.1260026552</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559650.539180754</v>
+        <v>559650.5391807542</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>559650.539180754</v>
+        <v>559650.5391807543</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>721328.7123734271</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.490732954</v>
+        <v>677904.4907329533</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329541</v>
+        <v>677904.4907329543</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734269</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734277</v>
+      </c>
+      <c r="I2" t="n">
         <v>721328.7123734273</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>721328.7123734276</v>
-      </c>
       <c r="J2" t="n">
-        <v>677904.490732954</v>
+        <v>677904.4907329526</v>
       </c>
       <c r="K2" t="n">
         <v>677904.490732954</v>
       </c>
       <c r="L2" t="n">
+        <v>721328.7123734277</v>
+      </c>
+      <c r="M2" t="n">
         <v>721328.7123734275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>721328.7123734273</v>
       </c>
       <c r="N2" t="n">
         <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>642966.3749704183</v>
+        <v>642966.3749704181</v>
       </c>
       <c r="P2" t="n">
-        <v>642966.3749704182</v>
+        <v>642966.3749704179</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301438</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460287</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989169</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501588</v>
+        <v>1177.707664501752</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>223021.8565516675</v>
       </c>
       <c r="D4" t="n">
-        <v>223021.8565516674</v>
+        <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26441,10 +26441,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>174664.8493247784</v>
+        <v>174664.8493247783</v>
       </c>
       <c r="K4" t="n">
-        <v>174664.8493247784</v>
+        <v>174664.8493247783</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26456,10 +26456,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>154674.4862404941</v>
+        <v>154674.4862404942</v>
       </c>
       <c r="P4" t="n">
-        <v>154674.486240494</v>
+        <v>154674.4862404942</v>
       </c>
     </row>
     <row r="5">
@@ -26496,7 +26496,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="K5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26508,10 +26508,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040764</v>
+        <v>53449.25755040765</v>
       </c>
       <c r="P5" t="n">
-        <v>53449.25755040763</v>
+        <v>53449.25755040765</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230525.5925528416</v>
+        <v>230525.5925528415</v>
       </c>
       <c r="C6" t="n">
-        <v>428721.3985445864</v>
+        <v>428721.3985445863</v>
       </c>
       <c r="D6" t="n">
-        <v>428721.3985445864</v>
+        <v>428721.3985445866</v>
       </c>
       <c r="E6" t="n">
-        <v>317674.4207615545</v>
+        <v>317565.8602074526</v>
       </c>
       <c r="F6" t="n">
-        <v>448127.3518992667</v>
+        <v>448018.7913451657</v>
       </c>
       <c r="G6" t="n">
-        <v>434794.8172166329</v>
+        <v>434794.8172166325</v>
       </c>
       <c r="H6" t="n">
+        <v>463889.7730896477</v>
+      </c>
+      <c r="I6" t="n">
         <v>463889.7730896474</v>
       </c>
-      <c r="I6" t="n">
-        <v>463889.7730896476</v>
-      </c>
       <c r="J6" t="n">
-        <v>247289.8538272243</v>
+        <v>247181.2932731218</v>
       </c>
       <c r="K6" t="n">
-        <v>448127.3518992665</v>
+        <v>448018.7913451654</v>
       </c>
       <c r="L6" t="n">
-        <v>405699.8613436188</v>
+        <v>405699.861343619</v>
       </c>
       <c r="M6" t="n">
-        <v>417767.8518497557</v>
+        <v>417767.8518497559</v>
       </c>
       <c r="N6" t="n">
         <v>463889.7730896475</v>
       </c>
       <c r="O6" t="n">
-        <v>433664.923515015</v>
+        <v>433469.0176715069</v>
       </c>
       <c r="P6" t="n">
-        <v>434842.6311795166</v>
+        <v>434646.7253360085</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
     </row>
     <row r="3">
@@ -26798,7 +26798,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253588</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626985</v>
+        <v>1.472134580627189</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>68.56307276199561</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>86.02878233277835</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.62118754448957</v>
+        <v>48.67123314666534</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27624,7 +27624,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>210.0866985110608</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>81.18714970581203</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27788,10 +27788,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0.8026724041149578</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27827,10 +27827,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>9.330013799186446</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27839,10 +27839,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>334.6331156105923</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>118.1047735419954</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28025,13 +28025,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,16 +28067,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.9592243743234</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>14.88709756352083</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743167</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28748,10 +28748,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28763,13 +28763,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28997,16 +28997,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,10 +29219,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29231,19 +29231,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29936,14 +29936,14 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.297982108276</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R37" t="n">
         <v>130.3599693155844</v>
@@ -30407,20 +30407,20 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316288</v>
+        <v>74.20952426316308</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316308</v>
       </c>
     </row>
   </sheetData>
@@ -34701,10 +34701,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>117.1778397212393</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>75.25145091837423</v>
       </c>
       <c r="M3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>113.215041853865</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>199.9647617065632</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.05004611020369</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35506,10 +35506,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963367</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>539.4516590774601</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36059,13 +36059,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36293,16 +36293,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36527,7 +36527,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36539,7 +36539,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O30" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553813</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37484,10 +37484,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184284</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835636</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37724,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100381</v>
+        <v>44.135036791004</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499729</v>
+        <v>156.871181949973</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851829</v>
+        <v>239.9950190851831</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159548</v>
+        <v>262.382835715955</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381217</v>
+        <v>259.2495586381219</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002417</v>
+        <v>238.5577738002419</v>
       </c>
       <c r="P43" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011212</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331536</v>
+        <v>77.66628827331556</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38107,16 +38107,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5613130890187</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100376</v>
+        <v>44.135036791004</v>
       </c>
       <c r="K46" t="n">
-        <v>156.8711819499728</v>
+        <v>156.871181949973</v>
       </c>
       <c r="L46" t="n">
-        <v>239.9950190851828</v>
+        <v>239.9950190851831</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159548</v>
+        <v>262.382835715955</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381216</v>
+        <v>259.2495586381219</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002417</v>
+        <v>238.5577738002419</v>
       </c>
       <c r="P46" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011212</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331532</v>
+        <v>77.66628827331556</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
